--- a/benchmarking/data/TEB/playground/benchmarking_other_playground_dynamic.xlsx
+++ b/benchmarking/data/TEB/playground/benchmarking_other_playground_dynamic.xlsx
@@ -494,16 +494,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.595</v>
+        <v>64.801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1758099575037746</v>
+        <v>0.1585722829283145</v>
       </c>
       <c r="D2" t="n">
-        <v>34.44731140136719</v>
+        <v>33.73754501342773</v>
       </c>
       <c r="E2" t="n">
-        <v>3.677122592926025</v>
+        <v>3.838452816009521</v>
       </c>
     </row>
   </sheetData>
@@ -552,16 +552,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>74.599</v>
+        <v>63.607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1129960021061606</v>
+        <v>0.150469518016676</v>
       </c>
       <c r="D2" t="n">
-        <v>36.33972930908203</v>
+        <v>33.10587310791016</v>
       </c>
       <c r="E2" t="n">
-        <v>3.722225666046143</v>
+        <v>3.36250901222229</v>
       </c>
     </row>
   </sheetData>
@@ -610,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76.40100000000001</v>
+        <v>64.203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1363583250146043</v>
+        <v>0.1426898343830232</v>
       </c>
       <c r="D2" t="n">
-        <v>36.09002685546875</v>
+        <v>33.20681381225586</v>
       </c>
       <c r="E2" t="n">
-        <v>3.118535041809082</v>
+        <v>3.620044708251953</v>
       </c>
     </row>
   </sheetData>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>68.598</v>
+        <v>66.19499999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1263187357816647</v>
+        <v>0.104727913956677</v>
       </c>
       <c r="D2" t="n">
-        <v>34.41734313964844</v>
+        <v>33.45143890380859</v>
       </c>
       <c r="E2" t="n">
-        <v>3.510952472686768</v>
+        <v>2.84593391418457</v>
       </c>
     </row>
   </sheetData>
@@ -726,16 +726,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>63.398</v>
+        <v>68.803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09163002528037337</v>
+        <v>0.1438927158829818</v>
       </c>
       <c r="D2" t="n">
-        <v>33.7886848449707</v>
+        <v>33.9770393371582</v>
       </c>
       <c r="E2" t="n">
-        <v>3.605698347091675</v>
+        <v>3.392913341522217</v>
       </c>
     </row>
   </sheetData>
@@ -784,16 +784,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>68.402</v>
+        <v>63.024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1247747964613581</v>
+        <v>0.0952277880090163</v>
       </c>
       <c r="D2" t="n">
-        <v>34.95403671264648</v>
+        <v>33.0434684753418</v>
       </c>
       <c r="E2" t="n">
-        <v>4.122129440307617</v>
+        <v>2.709926128387451</v>
       </c>
     </row>
   </sheetData>
@@ -842,16 +842,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.99799999999999</v>
+        <v>66.199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1310822824893354</v>
+        <v>0.1817085484422198</v>
       </c>
       <c r="D2" t="n">
-        <v>34.57128524780273</v>
+        <v>33.88814926147461</v>
       </c>
       <c r="E2" t="n">
-        <v>4.055627822875977</v>
+        <v>3.349871873855591</v>
       </c>
     </row>
   </sheetData>
@@ -900,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>69.60000000000001</v>
+        <v>66.607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1554954554337903</v>
+        <v>0.09050246661430196</v>
       </c>
       <c r="D2" t="n">
-        <v>35.24627685546875</v>
+        <v>33.84307098388672</v>
       </c>
       <c r="E2" t="n">
-        <v>4.316048145294189</v>
+        <v>3.04830002784729</v>
       </c>
     </row>
   </sheetData>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66.401</v>
+        <v>65.80199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1653671292796078</v>
+        <v>0.1211052528498621</v>
       </c>
       <c r="D2" t="n">
-        <v>34.80733108520508</v>
+        <v>33.83699798583984</v>
       </c>
       <c r="E2" t="n">
-        <v>3.227430105209351</v>
+        <v>3.128567934036255</v>
       </c>
     </row>
   </sheetData>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>65.61399999999999</v>
+        <v>64.006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1545269346744237</v>
+        <v>0.1328935128820808</v>
       </c>
       <c r="D2" t="n">
-        <v>34.40652465820312</v>
+        <v>33.19462585449219</v>
       </c>
       <c r="E2" t="n">
-        <v>3.861770391464233</v>
+        <v>2.888601779937744</v>
       </c>
     </row>
   </sheetData>
